--- a/builds/species_lists/species_list_waterberg2024.xlsx
+++ b/builds/species_lists/species_list_waterberg2024.xlsx
@@ -6295,7 +6295,7 @@
         <v>111</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C261" t="s">
         <v>18</v>
@@ -14081,7 +14081,7 @@
         <v>294</v>
       </c>
       <c r="B719" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C719" t="s">
         <v>7</v>
@@ -22374,16 +22374,16 @@
     </row>
     <row r="1207">
       <c r="A1207" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B1207" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C1207" t="s">
         <v>18</v>
       </c>
       <c r="D1207" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1207" t="n">
         <v>2024</v>
@@ -22397,10 +22397,10 @@
         <v>6</v>
       </c>
       <c r="C1208" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1208" t="n">
         <v>2024</v>
@@ -22417,7 +22417,7 @@
         <v>73</v>
       </c>
       <c r="D1209" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1209" t="n">
         <v>2024</v>
@@ -22425,7 +22425,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B1210" t="s">
         <v>6</v>
@@ -22434,7 +22434,7 @@
         <v>73</v>
       </c>
       <c r="D1210" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1210" t="n">
         <v>2024</v>
@@ -22451,7 +22451,7 @@
         <v>73</v>
       </c>
       <c r="D1211" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1211" t="n">
         <v>2024</v>
@@ -22468,7 +22468,7 @@
         <v>73</v>
       </c>
       <c r="D1212" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1212" t="n">
         <v>2024</v>
@@ -22485,7 +22485,7 @@
         <v>73</v>
       </c>
       <c r="D1213" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1213" t="n">
         <v>2024</v>
@@ -22502,7 +22502,7 @@
         <v>73</v>
       </c>
       <c r="D1214" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1214" t="n">
         <v>2024</v>
@@ -22519,7 +22519,7 @@
         <v>73</v>
       </c>
       <c r="D1215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1215" t="n">
         <v>2024</v>
@@ -22536,7 +22536,7 @@
         <v>73</v>
       </c>
       <c r="D1216" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1216" t="n">
         <v>2024</v>
@@ -22544,16 +22544,16 @@
     </row>
     <row r="1217">
       <c r="A1217" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B1217" t="s">
         <v>6</v>
       </c>
       <c r="C1217" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1217" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1217" t="n">
         <v>2024</v>
@@ -22567,10 +22567,10 @@
         <v>6</v>
       </c>
       <c r="C1218" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1218" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1218" t="n">
         <v>2024</v>
@@ -22584,10 +22584,10 @@
         <v>6</v>
       </c>
       <c r="C1219" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1219" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1219" t="n">
         <v>2024</v>
@@ -22604,7 +22604,7 @@
         <v>18</v>
       </c>
       <c r="D1220" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1220" t="n">
         <v>2024</v>
@@ -22612,16 +22612,16 @@
     </row>
     <row r="1221">
       <c r="A1221" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1221" t="s">
         <v>6</v>
       </c>
       <c r="C1221" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1221" t="n">
         <v>2024</v>
@@ -22635,7 +22635,7 @@
         <v>6</v>
       </c>
       <c r="C1222" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1222" t="s">
         <v>23</v>
@@ -22655,7 +22655,7 @@
         <v>18</v>
       </c>
       <c r="D1223" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1223" t="n">
         <v>2024</v>
@@ -22669,7 +22669,7 @@
         <v>6</v>
       </c>
       <c r="C1224" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1224" t="s">
         <v>26</v>
@@ -22686,10 +22686,10 @@
         <v>6</v>
       </c>
       <c r="C1225" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1225" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E1225" t="n">
         <v>2024</v>
@@ -22706,7 +22706,7 @@
         <v>18</v>
       </c>
       <c r="D1226" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E1226" t="n">
         <v>2024</v>
@@ -22720,7 +22720,7 @@
         <v>6</v>
       </c>
       <c r="C1227" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1227" t="s">
         <v>27</v>
@@ -22740,7 +22740,7 @@
         <v>73</v>
       </c>
       <c r="D1228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1228" t="n">
         <v>2024</v>
@@ -22748,16 +22748,16 @@
     </row>
     <row r="1229">
       <c r="A1229" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1229" t="s">
         <v>6</v>
       </c>
       <c r="C1229" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1229" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1229" t="n">
         <v>2024</v>
@@ -22774,7 +22774,7 @@
         <v>18</v>
       </c>
       <c r="D1230" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1230" t="n">
         <v>2024</v>
@@ -22791,7 +22791,7 @@
         <v>18</v>
       </c>
       <c r="D1231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1231" t="n">
         <v>2024</v>
@@ -22808,7 +22808,7 @@
         <v>18</v>
       </c>
       <c r="D1232" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1232" t="n">
         <v>2024</v>
@@ -22822,10 +22822,10 @@
         <v>6</v>
       </c>
       <c r="C1233" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1233" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1233" t="n">
         <v>2024</v>
@@ -22842,7 +22842,7 @@
         <v>73</v>
       </c>
       <c r="D1234" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1234" t="n">
         <v>2024</v>
@@ -22859,7 +22859,7 @@
         <v>73</v>
       </c>
       <c r="D1235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1235" t="n">
         <v>2024</v>
@@ -22873,7 +22873,7 @@
         <v>6</v>
       </c>
       <c r="C1236" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1236" t="s">
         <v>12</v>
@@ -22893,7 +22893,7 @@
         <v>18</v>
       </c>
       <c r="D1237" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1237" t="n">
         <v>2024</v>
@@ -22910,7 +22910,7 @@
         <v>18</v>
       </c>
       <c r="D1238" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1238" t="n">
         <v>2024</v>
@@ -22918,7 +22918,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>153</v>
+        <v>471</v>
       </c>
       <c r="B1239" t="s">
         <v>6</v>
@@ -22927,7 +22927,7 @@
         <v>18</v>
       </c>
       <c r="D1239" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1239" t="n">
         <v>2024</v>
@@ -22935,7 +22935,7 @@
     </row>
     <row r="1240">
       <c r="A1240" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B1240" t="s">
         <v>6</v>
@@ -22944,7 +22944,7 @@
         <v>18</v>
       </c>
       <c r="D1240" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1240" t="n">
         <v>2024</v>
@@ -22952,7 +22952,7 @@
     </row>
     <row r="1241">
       <c r="A1241" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="B1241" t="s">
         <v>6</v>
@@ -22961,7 +22961,7 @@
         <v>18</v>
       </c>
       <c r="D1241" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E1241" t="n">
         <v>2024</v>
@@ -22969,16 +22969,16 @@
     </row>
     <row r="1242">
       <c r="A1242" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="B1242" t="s">
         <v>6</v>
       </c>
       <c r="C1242" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1242" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E1242" t="n">
         <v>2024</v>
@@ -22986,16 +22986,16 @@
     </row>
     <row r="1243">
       <c r="A1243" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B1243" t="s">
         <v>6</v>
       </c>
       <c r="C1243" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1243" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E1243" t="n">
         <v>2024</v>
@@ -23012,7 +23012,7 @@
         <v>18</v>
       </c>
       <c r="D1244" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1244" t="n">
         <v>2024</v>
@@ -23029,7 +23029,7 @@
         <v>18</v>
       </c>
       <c r="D1245" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1245" t="n">
         <v>2024</v>
@@ -23046,7 +23046,7 @@
         <v>18</v>
       </c>
       <c r="D1246" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E1246" t="n">
         <v>2024</v>
@@ -23063,7 +23063,7 @@
         <v>18</v>
       </c>
       <c r="D1247" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E1247" t="n">
         <v>2024</v>
@@ -23080,7 +23080,7 @@
         <v>18</v>
       </c>
       <c r="D1248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1248" t="n">
         <v>2024</v>
@@ -23088,7 +23088,7 @@
     </row>
     <row r="1249">
       <c r="A1249" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1249" t="s">
         <v>6</v>
@@ -23097,7 +23097,7 @@
         <v>18</v>
       </c>
       <c r="D1249" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1249" t="n">
         <v>2024</v>
@@ -23114,7 +23114,7 @@
         <v>18</v>
       </c>
       <c r="D1250" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1250" t="n">
         <v>2024</v>
@@ -23122,16 +23122,16 @@
     </row>
     <row r="1251">
       <c r="A1251" t="s">
-        <v>475</v>
+        <v>180</v>
       </c>
       <c r="B1251" t="s">
         <v>6</v>
       </c>
       <c r="C1251" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1251" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E1251" t="n">
         <v>2024</v>
@@ -23145,10 +23145,10 @@
         <v>6</v>
       </c>
       <c r="C1252" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1252" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E1252" t="n">
         <v>2024</v>
@@ -23162,10 +23162,10 @@
         <v>6</v>
       </c>
       <c r="C1253" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1253" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1253" t="n">
         <v>2024</v>
@@ -23173,16 +23173,16 @@
     </row>
     <row r="1254">
       <c r="A1254" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1254" t="s">
         <v>6</v>
       </c>
       <c r="C1254" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1254" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1254" t="n">
         <v>2024</v>
@@ -23199,7 +23199,7 @@
         <v>18</v>
       </c>
       <c r="D1255" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1255" t="n">
         <v>2024</v>
@@ -23216,7 +23216,7 @@
         <v>18</v>
       </c>
       <c r="D1256" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E1256" t="n">
         <v>2024</v>
@@ -23233,7 +23233,7 @@
         <v>18</v>
       </c>
       <c r="D1257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1257" t="n">
         <v>2024</v>
@@ -23250,7 +23250,7 @@
         <v>18</v>
       </c>
       <c r="D1258" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1258" t="n">
         <v>2024</v>
@@ -23267,7 +23267,7 @@
         <v>18</v>
       </c>
       <c r="D1259" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1259" t="n">
         <v>2024</v>
@@ -23275,7 +23275,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="s">
-        <v>182</v>
+        <v>476</v>
       </c>
       <c r="B1260" t="s">
         <v>6</v>
@@ -23284,7 +23284,7 @@
         <v>18</v>
       </c>
       <c r="D1260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1260" t="n">
         <v>2024</v>
@@ -23298,10 +23298,10 @@
         <v>6</v>
       </c>
       <c r="C1261" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1261" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1261" t="n">
         <v>2024</v>
@@ -23315,7 +23315,7 @@
         <v>6</v>
       </c>
       <c r="C1262" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1262" t="s">
         <v>21</v>
@@ -23326,16 +23326,16 @@
     </row>
     <row r="1263">
       <c r="A1263" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B1263" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C1263" t="s">
         <v>18</v>
       </c>
       <c r="D1263" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1263" t="n">
         <v>2024</v>
@@ -23343,16 +23343,16 @@
     </row>
     <row r="1264">
       <c r="A1264" t="s">
-        <v>477</v>
+        <v>191</v>
       </c>
       <c r="B1264" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C1264" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1264" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E1264" t="n">
         <v>2024</v>
@@ -23369,7 +23369,7 @@
         <v>73</v>
       </c>
       <c r="D1265" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1265" t="n">
         <v>2024</v>
@@ -23386,7 +23386,7 @@
         <v>73</v>
       </c>
       <c r="D1266" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1266" t="n">
         <v>2024</v>
@@ -23403,7 +23403,7 @@
         <v>73</v>
       </c>
       <c r="D1267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1267" t="n">
         <v>2024</v>
@@ -23411,16 +23411,16 @@
     </row>
     <row r="1268">
       <c r="A1268" t="s">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="B1268" t="s">
         <v>6</v>
       </c>
       <c r="C1268" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1268" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E1268" t="n">
         <v>2024</v>
@@ -23434,10 +23434,10 @@
         <v>6</v>
       </c>
       <c r="C1269" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1269" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1269" t="n">
         <v>2024</v>
@@ -23451,7 +23451,7 @@
         <v>6</v>
       </c>
       <c r="C1270" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1270" t="s">
         <v>24</v>
@@ -23471,7 +23471,7 @@
         <v>18</v>
       </c>
       <c r="D1271" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1271" t="n">
         <v>2024</v>
@@ -23488,7 +23488,7 @@
         <v>18</v>
       </c>
       <c r="D1272" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1272" t="n">
         <v>2024</v>
@@ -23496,7 +23496,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="s">
-        <v>478</v>
+        <v>202</v>
       </c>
       <c r="B1273" t="s">
         <v>6</v>
@@ -23505,7 +23505,7 @@
         <v>18</v>
       </c>
       <c r="D1273" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E1273" t="n">
         <v>2024</v>
@@ -23522,7 +23522,7 @@
         <v>18</v>
       </c>
       <c r="D1274" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1274" t="n">
         <v>2024</v>
@@ -23539,7 +23539,7 @@
         <v>18</v>
       </c>
       <c r="D1275" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1275" t="n">
         <v>2024</v>
@@ -23556,7 +23556,7 @@
         <v>18</v>
       </c>
       <c r="D1276" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E1276" t="n">
         <v>2024</v>
@@ -23573,7 +23573,7 @@
         <v>18</v>
       </c>
       <c r="D1277" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1277" t="n">
         <v>2024</v>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="s">
-        <v>202</v>
+        <v>479</v>
       </c>
       <c r="B1278" t="s">
         <v>6</v>
@@ -23590,7 +23590,7 @@
         <v>18</v>
       </c>
       <c r="D1278" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1278" t="n">
         <v>2024</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="1279">
       <c r="A1279" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="B1279" t="s">
         <v>6</v>
@@ -23607,7 +23607,7 @@
         <v>18</v>
       </c>
       <c r="D1279" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1279" t="n">
         <v>2024</v>
@@ -23624,7 +23624,7 @@
         <v>18</v>
       </c>
       <c r="D1280" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E1280" t="n">
         <v>2024</v>
@@ -23641,7 +23641,7 @@
         <v>18</v>
       </c>
       <c r="D1281" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1281" t="n">
         <v>2024</v>
@@ -23649,7 +23649,7 @@
     </row>
     <row r="1282">
       <c r="A1282" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1282" t="s">
         <v>6</v>
@@ -23658,7 +23658,7 @@
         <v>18</v>
       </c>
       <c r="D1282" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E1282" t="n">
         <v>2024</v>
@@ -23672,10 +23672,10 @@
         <v>6</v>
       </c>
       <c r="C1283" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1283" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1283" t="n">
         <v>2024</v>
@@ -23689,10 +23689,10 @@
         <v>6</v>
       </c>
       <c r="C1284" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1284" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E1284" t="n">
         <v>2024</v>
@@ -23709,7 +23709,7 @@
         <v>18</v>
       </c>
       <c r="D1285" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E1285" t="n">
         <v>2024</v>
@@ -23726,7 +23726,7 @@
         <v>18</v>
       </c>
       <c r="D1286" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1286" t="n">
         <v>2024</v>
@@ -23734,7 +23734,7 @@
     </row>
     <row r="1287">
       <c r="A1287" t="s">
-        <v>204</v>
+        <v>480</v>
       </c>
       <c r="B1287" t="s">
         <v>6</v>
@@ -23743,7 +23743,7 @@
         <v>18</v>
       </c>
       <c r="D1287" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1287" t="n">
         <v>2024</v>
@@ -23760,7 +23760,7 @@
         <v>18</v>
       </c>
       <c r="D1288" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1288" t="n">
         <v>2024</v>
@@ -23777,7 +23777,7 @@
         <v>18</v>
       </c>
       <c r="D1289" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1289" t="n">
         <v>2024</v>
@@ -23794,7 +23794,7 @@
         <v>18</v>
       </c>
       <c r="D1290" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1290" t="n">
         <v>2024</v>
@@ -23811,7 +23811,7 @@
         <v>18</v>
       </c>
       <c r="D1291" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1291" t="n">
         <v>2024</v>
@@ -23819,7 +23819,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B1292" t="s">
         <v>6</v>
@@ -23828,7 +23828,7 @@
         <v>18</v>
       </c>
       <c r="D1292" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E1292" t="n">
         <v>2024</v>
@@ -23845,7 +23845,7 @@
         <v>18</v>
       </c>
       <c r="D1293" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1293" t="n">
         <v>2024</v>
@@ -23853,7 +23853,7 @@
     </row>
     <row r="1294">
       <c r="A1294" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1294" t="s">
         <v>6</v>
@@ -23862,7 +23862,7 @@
         <v>18</v>
       </c>
       <c r="D1294" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1294" t="n">
         <v>2024</v>
@@ -23870,7 +23870,7 @@
     </row>
     <row r="1295">
       <c r="A1295" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B1295" t="s">
         <v>6</v>
@@ -23879,7 +23879,7 @@
         <v>18</v>
       </c>
       <c r="D1295" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1295" t="n">
         <v>2024</v>
@@ -23896,7 +23896,7 @@
         <v>18</v>
       </c>
       <c r="D1296" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1296" t="n">
         <v>2024</v>
@@ -23913,7 +23913,7 @@
         <v>18</v>
       </c>
       <c r="D1297" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1297" t="n">
         <v>2024</v>
@@ -23930,7 +23930,7 @@
         <v>18</v>
       </c>
       <c r="D1298" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1298" t="n">
         <v>2024</v>
@@ -23947,7 +23947,7 @@
         <v>18</v>
       </c>
       <c r="D1299" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E1299" t="n">
         <v>2024</v>
@@ -23964,7 +23964,7 @@
         <v>18</v>
       </c>
       <c r="D1300" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1300" t="n">
         <v>2024</v>
@@ -23972,16 +23972,16 @@
     </row>
     <row r="1301">
       <c r="A1301" t="s">
-        <v>483</v>
+        <v>205</v>
       </c>
       <c r="B1301" t="s">
         <v>6</v>
       </c>
       <c r="C1301" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1301" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1301" t="n">
         <v>2024</v>
@@ -23995,10 +23995,10 @@
         <v>6</v>
       </c>
       <c r="C1302" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1302" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1302" t="n">
         <v>2024</v>
@@ -24015,7 +24015,7 @@
         <v>18</v>
       </c>
       <c r="D1303" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1303" t="n">
         <v>2024</v>
@@ -24032,7 +24032,7 @@
         <v>18</v>
       </c>
       <c r="D1304" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1304" t="n">
         <v>2024</v>
@@ -24049,7 +24049,7 @@
         <v>18</v>
       </c>
       <c r="D1305" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1305" t="n">
         <v>2024</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="1306">
       <c r="A1306" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="B1306" t="s">
         <v>6</v>
@@ -24083,7 +24083,7 @@
         <v>18</v>
       </c>
       <c r="D1307" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1307" t="n">
         <v>2024</v>
@@ -24091,7 +24091,7 @@
     </row>
     <row r="1308">
       <c r="A1308" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B1308" t="s">
         <v>6</v>
@@ -24100,7 +24100,7 @@
         <v>18</v>
       </c>
       <c r="D1308" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1308" t="n">
         <v>2024</v>
@@ -24108,7 +24108,7 @@
     </row>
     <row r="1309">
       <c r="A1309" t="s">
-        <v>485</v>
+        <v>217</v>
       </c>
       <c r="B1309" t="s">
         <v>6</v>
@@ -24117,7 +24117,7 @@
         <v>18</v>
       </c>
       <c r="D1309" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E1309" t="n">
         <v>2024</v>
@@ -24125,7 +24125,7 @@
     </row>
     <row r="1310">
       <c r="A1310" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="B1310" t="s">
         <v>6</v>
@@ -24134,7 +24134,7 @@
         <v>18</v>
       </c>
       <c r="D1310" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E1310" t="n">
         <v>2024</v>
@@ -24151,7 +24151,7 @@
         <v>18</v>
       </c>
       <c r="D1311" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1311" t="n">
         <v>2024</v>
@@ -24159,7 +24159,7 @@
     </row>
     <row r="1312">
       <c r="A1312" t="s">
-        <v>486</v>
+        <v>240</v>
       </c>
       <c r="B1312" t="s">
         <v>6</v>
@@ -24168,7 +24168,7 @@
         <v>18</v>
       </c>
       <c r="D1312" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1312" t="n">
         <v>2024</v>
@@ -24185,7 +24185,7 @@
         <v>18</v>
       </c>
       <c r="D1313" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E1313" t="n">
         <v>2024</v>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="1314">
       <c r="A1314" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B1314" t="s">
         <v>6</v>
@@ -24202,7 +24202,7 @@
         <v>18</v>
       </c>
       <c r="D1314" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E1314" t="n">
         <v>2024</v>
@@ -24216,10 +24216,10 @@
         <v>6</v>
       </c>
       <c r="C1315" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1315" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1315" t="n">
         <v>2024</v>
@@ -24233,7 +24233,7 @@
         <v>6</v>
       </c>
       <c r="C1316" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1316" t="s">
         <v>26</v>
@@ -24250,10 +24250,10 @@
         <v>6</v>
       </c>
       <c r="C1317" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1317" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1317" t="n">
         <v>2024</v>
@@ -24267,7 +24267,7 @@
         <v>6</v>
       </c>
       <c r="C1318" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1318" t="s">
         <v>24</v>
@@ -24284,10 +24284,10 @@
         <v>6</v>
       </c>
       <c r="C1319" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1319" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1319" t="n">
         <v>2024</v>
@@ -24301,10 +24301,10 @@
         <v>6</v>
       </c>
       <c r="C1320" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1320" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1320" t="n">
         <v>2024</v>
@@ -24318,7 +24318,7 @@
         <v>6</v>
       </c>
       <c r="C1321" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1321" t="s">
         <v>8</v>
@@ -24335,10 +24335,10 @@
         <v>6</v>
       </c>
       <c r="C1322" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1322" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1322" t="n">
         <v>2024</v>
@@ -24352,7 +24352,7 @@
         <v>6</v>
       </c>
       <c r="C1323" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1323" t="s">
         <v>11</v>
@@ -24369,10 +24369,10 @@
         <v>6</v>
       </c>
       <c r="C1324" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1324" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1324" t="n">
         <v>2024</v>
@@ -24386,7 +24386,7 @@
         <v>6</v>
       </c>
       <c r="C1325" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1325" t="s">
         <v>12</v>
@@ -24406,7 +24406,7 @@
         <v>73</v>
       </c>
       <c r="D1326" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1326" t="n">
         <v>2024</v>
@@ -24423,7 +24423,7 @@
         <v>73</v>
       </c>
       <c r="D1327" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1327" t="n">
         <v>2024</v>
@@ -24437,10 +24437,10 @@
         <v>6</v>
       </c>
       <c r="C1328" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1328" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1328" t="n">
         <v>2024</v>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="1329">
       <c r="A1329" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1329" t="s">
         <v>6</v>
@@ -24457,7 +24457,7 @@
         <v>18</v>
       </c>
       <c r="D1329" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1329" t="n">
         <v>2024</v>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="1330">
       <c r="A1330" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B1330" t="s">
         <v>6</v>
@@ -24474,7 +24474,7 @@
         <v>18</v>
       </c>
       <c r="D1330" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1330" t="n">
         <v>2024</v>
@@ -24482,7 +24482,7 @@
     </row>
     <row r="1331">
       <c r="A1331" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B1331" t="s">
         <v>6</v>
@@ -24508,7 +24508,7 @@
         <v>18</v>
       </c>
       <c r="D1332" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1332" t="n">
         <v>2024</v>
@@ -24525,7 +24525,7 @@
         <v>18</v>
       </c>
       <c r="D1333" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1333" t="n">
         <v>2024</v>
@@ -24539,10 +24539,10 @@
         <v>6</v>
       </c>
       <c r="C1334" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1334" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1334" t="n">
         <v>2024</v>
@@ -24550,16 +24550,16 @@
     </row>
     <row r="1335">
       <c r="A1335" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
       <c r="B1335" t="s">
         <v>6</v>
       </c>
       <c r="C1335" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1335" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1335" t="n">
         <v>2024</v>
@@ -24576,7 +24576,7 @@
         <v>18</v>
       </c>
       <c r="D1336" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1336" t="n">
         <v>2024</v>
@@ -24584,7 +24584,7 @@
     </row>
     <row r="1337">
       <c r="A1337" t="s">
-        <v>487</v>
+        <v>295</v>
       </c>
       <c r="B1337" t="s">
         <v>6</v>
@@ -24593,7 +24593,7 @@
         <v>18</v>
       </c>
       <c r="D1337" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E1337" t="n">
         <v>2024</v>
@@ -24610,7 +24610,7 @@
         <v>18</v>
       </c>
       <c r="D1338" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E1338" t="n">
         <v>2024</v>
@@ -24624,10 +24624,10 @@
         <v>6</v>
       </c>
       <c r="C1339" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1339" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E1339" t="n">
         <v>2024</v>
@@ -24641,10 +24641,10 @@
         <v>6</v>
       </c>
       <c r="C1340" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1340" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1340" t="n">
         <v>2024</v>
@@ -24652,7 +24652,7 @@
     </row>
     <row r="1341">
       <c r="A1341" t="s">
-        <v>295</v>
+        <v>488</v>
       </c>
       <c r="B1341" t="s">
         <v>6</v>
@@ -24661,7 +24661,7 @@
         <v>18</v>
       </c>
       <c r="D1341" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E1341" t="n">
         <v>2024</v>
@@ -24675,10 +24675,10 @@
         <v>6</v>
       </c>
       <c r="C1342" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1342" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1342" t="n">
         <v>2024</v>
@@ -24692,10 +24692,10 @@
         <v>6</v>
       </c>
       <c r="C1343" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1343" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1343" t="n">
         <v>2024</v>
@@ -24703,7 +24703,7 @@
     </row>
     <row r="1344">
       <c r="A1344" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B1344" t="s">
         <v>6</v>
@@ -24712,7 +24712,7 @@
         <v>18</v>
       </c>
       <c r="D1344" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1344" t="n">
         <v>2024</v>
@@ -24720,7 +24720,7 @@
     </row>
     <row r="1345">
       <c r="A1345" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B1345" t="s">
         <v>6</v>
@@ -24729,7 +24729,7 @@
         <v>18</v>
       </c>
       <c r="D1345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1345" t="n">
         <v>2024</v>
@@ -24746,7 +24746,7 @@
         <v>18</v>
       </c>
       <c r="D1346" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1346" t="n">
         <v>2024</v>
@@ -24763,7 +24763,7 @@
         <v>18</v>
       </c>
       <c r="D1347" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1347" t="n">
         <v>2024</v>
@@ -24777,7 +24777,7 @@
         <v>6</v>
       </c>
       <c r="C1348" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1348" t="s">
         <v>24</v>
@@ -24794,10 +24794,10 @@
         <v>6</v>
       </c>
       <c r="C1349" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1349" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1349" t="n">
         <v>2024</v>
@@ -24811,10 +24811,10 @@
         <v>6</v>
       </c>
       <c r="C1350" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1350" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1350" t="n">
         <v>2024</v>
@@ -24828,7 +24828,7 @@
         <v>6</v>
       </c>
       <c r="C1351" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1351" t="s">
         <v>12</v>
@@ -24845,10 +24845,10 @@
         <v>6</v>
       </c>
       <c r="C1352" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1352" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1352" t="n">
         <v>2024</v>
@@ -24865,7 +24865,7 @@
         <v>73</v>
       </c>
       <c r="D1353" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1353" t="n">
         <v>2024</v>
@@ -24873,13 +24873,13 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
       <c r="B1354" t="s">
         <v>6</v>
       </c>
       <c r="C1354" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1354" t="s">
         <v>28</v>
@@ -24896,7 +24896,7 @@
         <v>6</v>
       </c>
       <c r="C1355" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1355" t="s">
         <v>28</v>
@@ -24913,10 +24913,10 @@
         <v>6</v>
       </c>
       <c r="C1356" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1356" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1356" t="n">
         <v>2024</v>
@@ -24924,16 +24924,16 @@
     </row>
     <row r="1357">
       <c r="A1357" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B1357" t="s">
         <v>6</v>
       </c>
       <c r="C1357" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1357" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1357" t="n">
         <v>2024</v>
@@ -24950,7 +24950,7 @@
         <v>73</v>
       </c>
       <c r="D1358" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1358" t="n">
         <v>2024</v>
@@ -24964,10 +24964,10 @@
         <v>6</v>
       </c>
       <c r="C1359" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1359" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1359" t="n">
         <v>2024</v>
@@ -24975,16 +24975,16 @@
     </row>
     <row r="1360">
       <c r="A1360" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B1360" t="s">
         <v>6</v>
       </c>
       <c r="C1360" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1360" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1360" t="n">
         <v>2024</v>
@@ -24998,10 +24998,10 @@
         <v>6</v>
       </c>
       <c r="C1361" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1361" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1361" t="n">
         <v>2024</v>
@@ -25015,7 +25015,7 @@
         <v>6</v>
       </c>
       <c r="C1362" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1362" t="s">
         <v>26</v>
@@ -25032,10 +25032,10 @@
         <v>6</v>
       </c>
       <c r="C1363" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1363" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1363" t="n">
         <v>2024</v>
@@ -25052,7 +25052,7 @@
         <v>18</v>
       </c>
       <c r="D1364" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E1364" t="n">
         <v>2024</v>
@@ -25069,7 +25069,7 @@
         <v>18</v>
       </c>
       <c r="D1365" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1365" t="n">
         <v>2024</v>
@@ -25083,10 +25083,10 @@
         <v>6</v>
       </c>
       <c r="C1366" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1366" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1366" t="n">
         <v>2024</v>
@@ -25094,7 +25094,7 @@
     </row>
     <row r="1367">
       <c r="A1367" t="s">
-        <v>322</v>
+        <v>491</v>
       </c>
       <c r="B1367" t="s">
         <v>6</v>
@@ -25103,7 +25103,7 @@
         <v>73</v>
       </c>
       <c r="D1367" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E1367" t="n">
         <v>2024</v>
@@ -25117,10 +25117,10 @@
         <v>6</v>
       </c>
       <c r="C1368" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1368" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1368" t="n">
         <v>2024</v>
@@ -25134,7 +25134,7 @@
         <v>6</v>
       </c>
       <c r="C1369" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1369" t="s">
         <v>12</v>
@@ -25145,16 +25145,16 @@
     </row>
     <row r="1370">
       <c r="A1370" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B1370" t="s">
         <v>6</v>
       </c>
       <c r="C1370" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1370" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1370" t="n">
         <v>2024</v>
@@ -25171,7 +25171,7 @@
         <v>18</v>
       </c>
       <c r="D1371" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1371" t="n">
         <v>2024</v>
@@ -25179,7 +25179,7 @@
     </row>
     <row r="1372">
       <c r="A1372" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B1372" t="s">
         <v>6</v>
@@ -25188,7 +25188,7 @@
         <v>18</v>
       </c>
       <c r="D1372" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E1372" t="n">
         <v>2024</v>
@@ -25205,7 +25205,7 @@
         <v>18</v>
       </c>
       <c r="D1373" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1373" t="n">
         <v>2024</v>
@@ -25219,10 +25219,10 @@
         <v>6</v>
       </c>
       <c r="C1374" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1374" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1374" t="n">
         <v>2024</v>
@@ -25236,7 +25236,7 @@
         <v>6</v>
       </c>
       <c r="C1375" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1375" t="s">
         <v>28</v>
@@ -25247,16 +25247,16 @@
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>493</v>
+        <v>342</v>
       </c>
       <c r="B1376" t="s">
         <v>6</v>
       </c>
       <c r="C1376" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1376" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1376" t="n">
         <v>2024</v>
@@ -25270,7 +25270,7 @@
         <v>6</v>
       </c>
       <c r="C1377" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1377" t="s">
         <v>23</v>
@@ -25290,7 +25290,7 @@
         <v>18</v>
       </c>
       <c r="D1378" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1378" t="n">
         <v>2024</v>
@@ -25307,7 +25307,7 @@
         <v>18</v>
       </c>
       <c r="D1379" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1379" t="n">
         <v>2024</v>
@@ -25321,10 +25321,10 @@
         <v>6</v>
       </c>
       <c r="C1380" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1380" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1380" t="n">
         <v>2024</v>
@@ -25341,7 +25341,7 @@
         <v>73</v>
       </c>
       <c r="D1381" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1381" t="n">
         <v>2024</v>
@@ -25358,7 +25358,7 @@
         <v>73</v>
       </c>
       <c r="D1382" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1382" t="n">
         <v>2024</v>
@@ -25372,10 +25372,10 @@
         <v>6</v>
       </c>
       <c r="C1383" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1383" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1383" t="n">
         <v>2024</v>
@@ -25383,7 +25383,7 @@
     </row>
     <row r="1384">
       <c r="A1384" t="s">
-        <v>342</v>
+        <v>494</v>
       </c>
       <c r="B1384" t="s">
         <v>6</v>
@@ -25392,7 +25392,7 @@
         <v>18</v>
       </c>
       <c r="D1384" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1384" t="n">
         <v>2024</v>
@@ -25400,7 +25400,7 @@
     </row>
     <row r="1385">
       <c r="A1385" t="s">
-        <v>494</v>
+        <v>349</v>
       </c>
       <c r="B1385" t="s">
         <v>6</v>
@@ -25409,7 +25409,7 @@
         <v>18</v>
       </c>
       <c r="D1385" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1385" t="n">
         <v>2024</v>
@@ -25417,7 +25417,7 @@
     </row>
     <row r="1386">
       <c r="A1386" t="s">
-        <v>349</v>
+        <v>495</v>
       </c>
       <c r="B1386" t="s">
         <v>6</v>
@@ -25426,7 +25426,7 @@
         <v>18</v>
       </c>
       <c r="D1386" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E1386" t="n">
         <v>2024</v>
@@ -25443,7 +25443,7 @@
         <v>18</v>
       </c>
       <c r="D1387" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1387" t="n">
         <v>2024</v>
@@ -25460,7 +25460,7 @@
         <v>18</v>
       </c>
       <c r="D1388" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1388" t="n">
         <v>2024</v>
@@ -25477,7 +25477,7 @@
         <v>18</v>
       </c>
       <c r="D1389" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E1389" t="n">
         <v>2024</v>
@@ -25494,7 +25494,7 @@
         <v>18</v>
       </c>
       <c r="D1390" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E1390" t="n">
         <v>2024</v>
@@ -25502,7 +25502,7 @@
     </row>
     <row r="1391">
       <c r="A1391" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B1391" t="s">
         <v>6</v>
@@ -25511,7 +25511,7 @@
         <v>18</v>
       </c>
       <c r="D1391" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1391" t="n">
         <v>2024</v>
@@ -25519,16 +25519,16 @@
     </row>
     <row r="1392">
       <c r="A1392" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1392" t="s">
         <v>6</v>
       </c>
       <c r="C1392" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1392" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E1392" t="n">
         <v>2024</v>
@@ -25536,16 +25536,16 @@
     </row>
     <row r="1393">
       <c r="A1393" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B1393" t="s">
         <v>6</v>
       </c>
       <c r="C1393" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1393" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E1393" t="n">
         <v>2024</v>
@@ -25553,16 +25553,16 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>498</v>
+        <v>364</v>
       </c>
       <c r="B1394" t="s">
         <v>6</v>
       </c>
       <c r="C1394" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1394" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1394" t="n">
         <v>2024</v>
@@ -25579,7 +25579,7 @@
         <v>73</v>
       </c>
       <c r="D1395" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1395" t="n">
         <v>2024</v>
@@ -25593,10 +25593,10 @@
         <v>6</v>
       </c>
       <c r="C1396" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1396" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E1396" t="n">
         <v>2024</v>
@@ -25604,16 +25604,16 @@
     </row>
     <row r="1397">
       <c r="A1397" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="B1397" t="s">
         <v>6</v>
       </c>
       <c r="C1397" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1397" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1397" t="n">
         <v>2024</v>
@@ -25627,7 +25627,7 @@
         <v>6</v>
       </c>
       <c r="C1398" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1398" t="s">
         <v>8</v>
@@ -25647,7 +25647,7 @@
         <v>18</v>
       </c>
       <c r="D1399" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1399" t="n">
         <v>2024</v>
@@ -25664,7 +25664,7 @@
         <v>18</v>
       </c>
       <c r="D1400" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E1400" t="n">
         <v>2024</v>
@@ -25672,7 +25672,7 @@
     </row>
     <row r="1401">
       <c r="A1401" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B1401" t="s">
         <v>6</v>
@@ -25681,7 +25681,7 @@
         <v>18</v>
       </c>
       <c r="D1401" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1401" t="n">
         <v>2024</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="1402">
       <c r="A1402" t="s">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="B1402" t="s">
         <v>6</v>
@@ -25698,7 +25698,7 @@
         <v>18</v>
       </c>
       <c r="D1402" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E1402" t="n">
         <v>2024</v>
@@ -25712,7 +25712,7 @@
         <v>6</v>
       </c>
       <c r="C1403" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1403" t="s">
         <v>14</v>
@@ -25729,10 +25729,10 @@
         <v>6</v>
       </c>
       <c r="C1404" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1404" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1404" t="n">
         <v>2024</v>
@@ -25746,7 +25746,7 @@
         <v>6</v>
       </c>
       <c r="C1405" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1405" t="s">
         <v>8</v>
@@ -25766,7 +25766,7 @@
         <v>73</v>
       </c>
       <c r="D1406" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1406" t="n">
         <v>2024</v>
@@ -25780,10 +25780,10 @@
         <v>6</v>
       </c>
       <c r="C1407" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1407" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1407" t="n">
         <v>2024</v>
@@ -25800,7 +25800,7 @@
         <v>18</v>
       </c>
       <c r="D1408" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1408" t="n">
         <v>2024</v>
@@ -25808,16 +25808,16 @@
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B1409" t="s">
         <v>6</v>
       </c>
       <c r="C1409" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1409" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1409" t="n">
         <v>2024</v>
@@ -25831,7 +25831,7 @@
         <v>6</v>
       </c>
       <c r="C1410" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1410" t="s">
         <v>27</v>
@@ -25842,16 +25842,16 @@
     </row>
     <row r="1411">
       <c r="A1411" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B1411" t="s">
         <v>6</v>
       </c>
       <c r="C1411" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1411" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E1411" t="n">
         <v>2024</v>
@@ -25868,7 +25868,7 @@
         <v>73</v>
       </c>
       <c r="D1412" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1412" t="n">
         <v>2024</v>
@@ -25882,10 +25882,10 @@
         <v>6</v>
       </c>
       <c r="C1413" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1413" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1413" t="n">
         <v>2024</v>
@@ -25893,7 +25893,7 @@
     </row>
     <row r="1414">
       <c r="A1414" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B1414" t="s">
         <v>6</v>
@@ -25902,7 +25902,7 @@
         <v>18</v>
       </c>
       <c r="D1414" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1414" t="n">
         <v>2024</v>
@@ -25919,7 +25919,7 @@
         <v>18</v>
       </c>
       <c r="D1415" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E1415" t="n">
         <v>2024</v>
@@ -25927,7 +25927,7 @@
     </row>
     <row r="1416">
       <c r="A1416" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1416" t="s">
         <v>6</v>
@@ -25936,7 +25936,7 @@
         <v>18</v>
       </c>
       <c r="D1416" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1416" t="n">
         <v>2024</v>
@@ -25944,7 +25944,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B1417" t="s">
         <v>6</v>
@@ -25953,7 +25953,7 @@
         <v>18</v>
       </c>
       <c r="D1417" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E1417" t="n">
         <v>2024</v>
@@ -25961,7 +25961,7 @@
     </row>
     <row r="1418">
       <c r="A1418" t="s">
-        <v>376</v>
+        <v>501</v>
       </c>
       <c r="B1418" t="s">
         <v>6</v>
@@ -25970,7 +25970,7 @@
         <v>18</v>
       </c>
       <c r="D1418" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1418" t="n">
         <v>2024</v>
@@ -25984,10 +25984,10 @@
         <v>6</v>
       </c>
       <c r="C1419" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1419" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1419" t="n">
         <v>2024</v>
@@ -26001,10 +26001,10 @@
         <v>6</v>
       </c>
       <c r="C1420" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1420" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1420" t="n">
         <v>2024</v>
@@ -26018,7 +26018,7 @@
         <v>6</v>
       </c>
       <c r="C1421" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1421" t="s">
         <v>24</v>
@@ -26035,10 +26035,10 @@
         <v>6</v>
       </c>
       <c r="C1422" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1422" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1422" t="n">
         <v>2024</v>
@@ -26052,10 +26052,10 @@
         <v>6</v>
       </c>
       <c r="C1423" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1423" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1423" t="n">
         <v>2024</v>
@@ -26069,7 +26069,7 @@
         <v>6</v>
       </c>
       <c r="C1424" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1424" t="s">
         <v>28</v>
@@ -26080,7 +26080,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B1425" t="s">
         <v>6</v>
@@ -26089,7 +26089,7 @@
         <v>18</v>
       </c>
       <c r="D1425" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1425" t="n">
         <v>2024</v>
@@ -26106,7 +26106,7 @@
         <v>18</v>
       </c>
       <c r="D1426" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1426" t="n">
         <v>2024</v>
@@ -26114,7 +26114,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B1427" t="s">
         <v>6</v>
@@ -26123,7 +26123,7 @@
         <v>18</v>
       </c>
       <c r="D1427" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E1427" t="n">
         <v>2024</v>
@@ -26131,7 +26131,7 @@
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="B1428" t="s">
         <v>6</v>
@@ -26140,7 +26140,7 @@
         <v>18</v>
       </c>
       <c r="D1428" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E1428" t="n">
         <v>2024</v>
@@ -26154,10 +26154,10 @@
         <v>6</v>
       </c>
       <c r="C1429" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1429" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1429" t="n">
         <v>2024</v>
@@ -26165,7 +26165,7 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1430" t="s">
         <v>6</v>
@@ -26174,7 +26174,7 @@
         <v>73</v>
       </c>
       <c r="D1430" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1430" t="n">
         <v>2024</v>
@@ -26191,7 +26191,7 @@
         <v>73</v>
       </c>
       <c r="D1431" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1431" t="n">
         <v>2024</v>
@@ -26205,10 +26205,10 @@
         <v>6</v>
       </c>
       <c r="C1432" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1432" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1432" t="n">
         <v>2024</v>
@@ -26222,10 +26222,10 @@
         <v>6</v>
       </c>
       <c r="C1433" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1433" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1433" t="n">
         <v>2024</v>
@@ -26242,7 +26242,7 @@
         <v>73</v>
       </c>
       <c r="D1434" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1434" t="n">
         <v>2024</v>
@@ -26256,10 +26256,10 @@
         <v>6</v>
       </c>
       <c r="C1435" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1435" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E1435" t="n">
         <v>2024</v>
@@ -26267,7 +26267,7 @@
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="B1436" t="s">
         <v>6</v>
@@ -26276,7 +26276,7 @@
         <v>18</v>
       </c>
       <c r="D1436" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1436" t="n">
         <v>2024</v>
@@ -26284,7 +26284,7 @@
     </row>
     <row r="1437">
       <c r="A1437" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B1437" t="s">
         <v>6</v>
@@ -26293,7 +26293,7 @@
         <v>18</v>
       </c>
       <c r="D1437" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1437" t="n">
         <v>2024</v>
@@ -26301,7 +26301,7 @@
     </row>
     <row r="1438">
       <c r="A1438" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1438" t="s">
         <v>6</v>
@@ -26310,7 +26310,7 @@
         <v>18</v>
       </c>
       <c r="D1438" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1438" t="n">
         <v>2024</v>
@@ -26318,16 +26318,16 @@
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="B1439" t="s">
         <v>6</v>
       </c>
       <c r="C1439" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1439" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1439" t="n">
         <v>2024</v>
@@ -26335,16 +26335,16 @@
     </row>
     <row r="1440">
       <c r="A1440" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B1440" t="s">
         <v>6</v>
       </c>
       <c r="C1440" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1440" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1440" t="n">
         <v>2024</v>
@@ -26358,7 +26358,7 @@
         <v>6</v>
       </c>
       <c r="C1441" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1441" t="s">
         <v>11</v>
@@ -26375,10 +26375,10 @@
         <v>6</v>
       </c>
       <c r="C1442" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1442" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1442" t="n">
         <v>2024</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="B1443" t="s">
         <v>6</v>
@@ -26403,7 +26403,7 @@
     </row>
     <row r="1444">
       <c r="A1444" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B1444" t="s">
         <v>6</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="1445">
       <c r="A1445" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="B1445" t="s">
         <v>6</v>
@@ -26429,7 +26429,7 @@
         <v>18</v>
       </c>
       <c r="D1445" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1445" t="n">
         <v>2024</v>
@@ -26446,7 +26446,7 @@
         <v>18</v>
       </c>
       <c r="D1446" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1446" t="n">
         <v>2024</v>
@@ -26460,7 +26460,7 @@
         <v>6</v>
       </c>
       <c r="C1447" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1447" t="s">
         <v>8</v>
@@ -26477,10 +26477,10 @@
         <v>6</v>
       </c>
       <c r="C1448" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1448" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E1448" t="n">
         <v>2024</v>
@@ -26488,7 +26488,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B1449" t="s">
         <v>6</v>
@@ -26497,7 +26497,7 @@
         <v>18</v>
       </c>
       <c r="D1449" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1449" t="n">
         <v>2024</v>
@@ -26514,7 +26514,7 @@
         <v>18</v>
       </c>
       <c r="D1450" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1450" t="n">
         <v>2024</v>
@@ -26522,7 +26522,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B1451" t="s">
         <v>6</v>
@@ -26531,7 +26531,7 @@
         <v>18</v>
       </c>
       <c r="D1451" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1451" t="n">
         <v>2024</v>
@@ -26548,7 +26548,7 @@
         <v>18</v>
       </c>
       <c r="D1452" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1452" t="n">
         <v>2024</v>
@@ -26565,7 +26565,7 @@
         <v>18</v>
       </c>
       <c r="D1453" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1453" t="n">
         <v>2024</v>
@@ -26579,10 +26579,10 @@
         <v>6</v>
       </c>
       <c r="C1454" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1454" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1454" t="n">
         <v>2024</v>
@@ -26596,7 +26596,7 @@
         <v>6</v>
       </c>
       <c r="C1455" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1455" t="s">
         <v>8</v>
@@ -26616,7 +26616,7 @@
         <v>18</v>
       </c>
       <c r="D1456" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1456" t="n">
         <v>2024</v>
@@ -26624,7 +26624,7 @@
     </row>
     <row r="1457">
       <c r="A1457" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B1457" t="s">
         <v>6</v>
@@ -26633,7 +26633,7 @@
         <v>18</v>
       </c>
       <c r="D1457" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E1457" t="n">
         <v>2024</v>
@@ -26647,7 +26647,7 @@
         <v>6</v>
       </c>
       <c r="C1458" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1458" t="s">
         <v>26</v>
@@ -26664,10 +26664,10 @@
         <v>6</v>
       </c>
       <c r="C1459" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1459" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1459" t="n">
         <v>2024</v>
@@ -26681,10 +26681,10 @@
         <v>6</v>
       </c>
       <c r="C1460" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1460" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E1460" t="n">
         <v>2024</v>
@@ -26698,10 +26698,10 @@
         <v>6</v>
       </c>
       <c r="C1461" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1461" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1461" t="n">
         <v>2024</v>
@@ -26715,10 +26715,10 @@
         <v>6</v>
       </c>
       <c r="C1462" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1462" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1462" t="n">
         <v>2024</v>
@@ -26732,10 +26732,10 @@
         <v>6</v>
       </c>
       <c r="C1463" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1463" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1463" t="n">
         <v>2024</v>
@@ -26752,7 +26752,7 @@
         <v>18</v>
       </c>
       <c r="D1464" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1464" t="n">
         <v>2024</v>
@@ -26760,16 +26760,16 @@
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B1465" t="s">
         <v>6</v>
       </c>
       <c r="C1465" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1465" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1465" t="n">
         <v>2024</v>
@@ -26783,7 +26783,7 @@
         <v>6</v>
       </c>
       <c r="C1466" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1466" t="s">
         <v>26</v>
@@ -26803,7 +26803,7 @@
         <v>18</v>
       </c>
       <c r="D1467" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1467" t="n">
         <v>2024</v>
@@ -26820,7 +26820,7 @@
         <v>18</v>
       </c>
       <c r="D1468" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1468" t="n">
         <v>2024</v>
@@ -26834,10 +26834,10 @@
         <v>6</v>
       </c>
       <c r="C1469" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1469" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1469" t="n">
         <v>2024</v>
@@ -26854,7 +26854,7 @@
         <v>73</v>
       </c>
       <c r="D1470" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1470" t="n">
         <v>2024</v>
@@ -26862,16 +26862,16 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B1471" t="s">
         <v>6</v>
       </c>
       <c r="C1471" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1471" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E1471" t="n">
         <v>2024</v>
@@ -26879,13 +26879,13 @@
     </row>
     <row r="1472">
       <c r="A1472" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B1472" t="s">
         <v>6</v>
       </c>
       <c r="C1472" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1472" t="s">
         <v>23</v>
@@ -26902,10 +26902,10 @@
         <v>6</v>
       </c>
       <c r="C1473" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1473" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1473" t="n">
         <v>2024</v>
@@ -26922,7 +26922,7 @@
         <v>18</v>
       </c>
       <c r="D1474" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1474" t="n">
         <v>2024</v>
@@ -26939,7 +26939,7 @@
         <v>18</v>
       </c>
       <c r="D1475" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1475" t="n">
         <v>2024</v>
@@ -26953,10 +26953,10 @@
         <v>6</v>
       </c>
       <c r="C1476" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1476" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1476" t="n">
         <v>2024</v>
@@ -26970,10 +26970,10 @@
         <v>6</v>
       </c>
       <c r="C1477" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1477" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1477" t="n">
         <v>2024</v>
@@ -26981,16 +26981,16 @@
     </row>
     <row r="1478">
       <c r="A1478" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B1478" t="s">
         <v>6</v>
       </c>
       <c r="C1478" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1478" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1478" t="n">
         <v>2024</v>
@@ -27004,7 +27004,7 @@
         <v>6</v>
       </c>
       <c r="C1479" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1479" t="s">
         <v>23</v>
@@ -27024,7 +27024,7 @@
         <v>18</v>
       </c>
       <c r="D1480" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1480" t="n">
         <v>2024</v>
@@ -27041,7 +27041,7 @@
         <v>18</v>
       </c>
       <c r="D1481" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E1481" t="n">
         <v>2024</v>
@@ -27055,7 +27055,7 @@
         <v>6</v>
       </c>
       <c r="C1482" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1482" t="s">
         <v>11</v>
@@ -27072,10 +27072,10 @@
         <v>6</v>
       </c>
       <c r="C1483" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D1483" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E1483" t="n">
         <v>2024</v>
@@ -27092,7 +27092,7 @@
         <v>18</v>
       </c>
       <c r="D1484" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1484" t="n">
         <v>2024</v>
@@ -27106,7 +27106,7 @@
         <v>6</v>
       </c>
       <c r="C1485" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D1485" t="s">
         <v>28</v>
@@ -27126,26 +27126,9 @@
         <v>73</v>
       </c>
       <c r="D1486" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1486" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1487" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1487" t="n">
         <v>2024</v>
       </c>
     </row>
